--- a/analyses/pronovo-2019/Unipept-GO/etnp-peps-GO/GO_terms-cellular_component-summary.xlsx
+++ b/analyses/pronovo-2019/Unipept-GO/etnp-peps-GO/GO_terms-cellular_component-summary.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/pronovo-2019/Unipept-GO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/pronovo-2019/Unipept-GO/etnp-peps-GO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2B3FC6-B6CA-7545-B96C-8604397DCE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6068CD-1694-BE4B-B08A-E8A6EA94AE5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2580" windowWidth="23220" windowHeight="11600"/>
+    <workbookView xWindow="2380" yWindow="2580" windowWidth="23220" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="231-peaks97-db-GO_terms-cellula" sheetId="1" r:id="rId1"/>
+    <sheet name="231-peaks97-combined" sheetId="1" r:id="rId1"/>
+    <sheet name="233-peaks105-combined" sheetId="2" r:id="rId2"/>
+    <sheet name="243-peaks-combined" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Peptides</t>
-  </si>
-  <si>
-    <t>GO term</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="744">
   <si>
     <t>GO:0005737</t>
   </si>
@@ -115,22 +108,2158 @@
     <t>photosystem</t>
   </si>
   <si>
-    <t>GO:0005622</t>
-  </si>
-  <si>
-    <t>intracellular</t>
-  </si>
-  <si>
     <t>GO:0032153</t>
   </si>
   <si>
     <t>cell division site</t>
+  </si>
+  <si>
+    <t>membrane</t>
+  </si>
+  <si>
+    <t>GO:0005886</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>GO:0005874</t>
+  </si>
+  <si>
+    <t>microtubule</t>
+  </si>
+  <si>
+    <t>GO:0005634</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>GO:0005615</t>
+  </si>
+  <si>
+    <t>GO:0070062</t>
+  </si>
+  <si>
+    <t>GO:0005783</t>
+  </si>
+  <si>
+    <t>GO:0005794</t>
+  </si>
+  <si>
+    <t>GO:0032991</t>
+  </si>
+  <si>
+    <t>GO:0009536</t>
+  </si>
+  <si>
+    <t>plastid</t>
+  </si>
+  <si>
+    <t>GO:0009507</t>
+  </si>
+  <si>
+    <t>chloroplast</t>
+  </si>
+  <si>
+    <t>GO:0005576</t>
+  </si>
+  <si>
+    <t>GO:0009535</t>
+  </si>
+  <si>
+    <t>GO:0016020</t>
+  </si>
+  <si>
+    <t>GO:0000786</t>
+  </si>
+  <si>
+    <t>nucleosome</t>
+  </si>
+  <si>
+    <t>GO:0005829</t>
+  </si>
+  <si>
+    <t>cytosol</t>
+  </si>
+  <si>
+    <t>GO:0042597</t>
+  </si>
+  <si>
+    <t>GO:0005623</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>GO:0009279</t>
+  </si>
+  <si>
+    <t>GO:0043190</t>
+  </si>
+  <si>
+    <t>GO:0031317</t>
+  </si>
+  <si>
+    <t>GO:0005887</t>
+  </si>
+  <si>
+    <t>GO:0005694</t>
+  </si>
+  <si>
+    <t>chromosome</t>
+  </si>
+  <si>
+    <t>GO:0005856</t>
+  </si>
+  <si>
+    <t>cytoskeleton</t>
+  </si>
+  <si>
+    <t>GO:0005654</t>
+  </si>
+  <si>
+    <t>nucleoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005739</t>
+  </si>
+  <si>
+    <t>mitochondrion</t>
+  </si>
+  <si>
+    <t>GO:0001533</t>
+  </si>
+  <si>
+    <t>GO:0045095</t>
+  </si>
+  <si>
+    <t>GO:0005730</t>
+  </si>
+  <si>
+    <t>nucleolus</t>
+  </si>
+  <si>
+    <t>GO:0005882</t>
+  </si>
+  <si>
+    <t>GO:0009380</t>
+  </si>
+  <si>
+    <t>GO:0000790</t>
+  </si>
+  <si>
+    <t>GO:0030176</t>
+  </si>
+  <si>
+    <t>GO:0009331</t>
+  </si>
+  <si>
+    <t>GO:0000139</t>
+  </si>
+  <si>
+    <t>GO:0005971</t>
+  </si>
+  <si>
+    <t>GO:0019867</t>
+  </si>
+  <si>
+    <t>GO:0005618</t>
+  </si>
+  <si>
+    <t>GO:0015627</t>
+  </si>
+  <si>
+    <t>GO:0005925</t>
+  </si>
+  <si>
+    <t>GO:0097433</t>
+  </si>
+  <si>
+    <t>GO:0035267</t>
+  </si>
+  <si>
+    <t>GO:0009420</t>
+  </si>
+  <si>
+    <t>GO:0009288</t>
+  </si>
+  <si>
+    <t>GO:0009325</t>
+  </si>
+  <si>
+    <t>GO:0005802</t>
+  </si>
+  <si>
+    <t>GO:0005777</t>
+  </si>
+  <si>
+    <t>peroxisome</t>
+  </si>
+  <si>
+    <t>GO:0070469</t>
+  </si>
+  <si>
+    <t>respirasome</t>
+  </si>
+  <si>
+    <t>GO:1990077</t>
+  </si>
+  <si>
+    <t>GO:0030054</t>
+  </si>
+  <si>
+    <t>GO:0048471</t>
+  </si>
+  <si>
+    <t>GO:0005885</t>
+  </si>
+  <si>
+    <t>GO:0005789</t>
+  </si>
+  <si>
+    <t>GO:0019897</t>
+  </si>
+  <si>
+    <t>GO:0009360</t>
+  </si>
+  <si>
+    <t>GO:0005811</t>
+  </si>
+  <si>
+    <t>GO:0005681</t>
+  </si>
+  <si>
+    <t>GO:0031011</t>
+  </si>
+  <si>
+    <t>GO:0000781</t>
+  </si>
+  <si>
+    <t>chromosome, telomeric region</t>
+  </si>
+  <si>
+    <t>GO:0030286</t>
+  </si>
+  <si>
+    <t>GO:0034066</t>
+  </si>
+  <si>
+    <t>GO:0062023</t>
+  </si>
+  <si>
+    <t>GO:1904813</t>
+  </si>
+  <si>
+    <t>GO:0072562</t>
+  </si>
+  <si>
+    <t>GO:0030027</t>
+  </si>
+  <si>
+    <t>lamellipodium</t>
+  </si>
+  <si>
+    <t>GO:0030175</t>
+  </si>
+  <si>
+    <t>filopodium</t>
+  </si>
+  <si>
+    <t>GO:0005884</t>
+  </si>
+  <si>
+    <t>GO:0044297</t>
+  </si>
+  <si>
+    <t>GO:0030288</t>
+  </si>
+  <si>
+    <t>GO:0033165</t>
+  </si>
+  <si>
+    <t>GO:0001534</t>
+  </si>
+  <si>
+    <t>GO:0031985</t>
+  </si>
+  <si>
+    <t>GO:0030915</t>
+  </si>
+  <si>
+    <t>GO:0016592</t>
+  </si>
+  <si>
+    <t>GO:0005930</t>
+  </si>
+  <si>
+    <t>axoneme</t>
+  </si>
+  <si>
+    <t>GO:0070069</t>
+  </si>
+  <si>
+    <t>GO:0016459</t>
+  </si>
+  <si>
+    <t>GO:0033179</t>
+  </si>
+  <si>
+    <t>proton-transporting V-type ATPase, V0 domain</t>
+  </si>
+  <si>
+    <t>GO:0009289</t>
+  </si>
+  <si>
+    <t>pilus</t>
+  </si>
+  <si>
+    <t>GO:0022627</t>
+  </si>
+  <si>
+    <t>GO:0016604</t>
+  </si>
+  <si>
+    <t>GO:0030863</t>
+  </si>
+  <si>
+    <t>GO:0036464</t>
+  </si>
+  <si>
+    <t>GO:0098871</t>
+  </si>
+  <si>
+    <t>GO:0098685</t>
+  </si>
+  <si>
+    <t>synapse</t>
+  </si>
+  <si>
+    <t>GO:0098978</t>
+  </si>
+  <si>
+    <t>GO:0044305</t>
+  </si>
+  <si>
+    <t>GO:0005741</t>
+  </si>
+  <si>
+    <t>GO:0030132</t>
+  </si>
+  <si>
+    <t>GO:0030130</t>
+  </si>
+  <si>
+    <t>GO:0009358</t>
+  </si>
+  <si>
+    <t>GO:0031235</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>GO:0009431</t>
+  </si>
+  <si>
+    <t>bacterial-type flagellum basal body, MS ring</t>
+  </si>
+  <si>
+    <t>GO:0005680</t>
+  </si>
+  <si>
+    <t>GO:0031514</t>
+  </si>
+  <si>
+    <t>cilium</t>
+  </si>
+  <si>
+    <t>GO:0005852</t>
+  </si>
+  <si>
+    <t>GO:0016282</t>
+  </si>
+  <si>
+    <t>GO:0033290</t>
+  </si>
+  <si>
+    <t>GO:0000145</t>
+  </si>
+  <si>
+    <t>exocyst</t>
+  </si>
+  <si>
+    <t>GO:0005663</t>
+  </si>
+  <si>
+    <t>GO:1990904</t>
+  </si>
+  <si>
+    <t>GO:0031461</t>
+  </si>
+  <si>
+    <t>GO:0042788</t>
+  </si>
+  <si>
+    <t>GO:0031225</t>
+  </si>
+  <si>
+    <t>GO:0045263</t>
+  </si>
+  <si>
+    <t>proton-transporting ATP synthase complex, coupling factor F(o)</t>
+  </si>
+  <si>
+    <t>GO:0005835</t>
+  </si>
+  <si>
+    <t>GO:0090575</t>
+  </si>
+  <si>
+    <t>GO:0030173</t>
+  </si>
+  <si>
+    <t>GO:0031429</t>
+  </si>
+  <si>
+    <t>GO:0009341</t>
+  </si>
+  <si>
+    <t>GO:0000228</t>
+  </si>
+  <si>
+    <t>GO:1990112</t>
+  </si>
+  <si>
+    <t>GO:0042383</t>
+  </si>
+  <si>
+    <t>sarcolemma</t>
+  </si>
+  <si>
+    <t>GO:0016529</t>
+  </si>
+  <si>
+    <t>GO:0005846</t>
+  </si>
+  <si>
+    <t>GO:0005814</t>
+  </si>
+  <si>
+    <t>centriole</t>
+  </si>
+  <si>
+    <t>GO:0098536</t>
+  </si>
+  <si>
+    <t>deuterosome</t>
+  </si>
+  <si>
+    <t>GO:0009570</t>
+  </si>
+  <si>
+    <t>GO:0030134</t>
+  </si>
+  <si>
+    <t>GO:0005771</t>
+  </si>
+  <si>
+    <t>GO:0000328</t>
+  </si>
+  <si>
+    <t>GO:0017119</t>
+  </si>
+  <si>
+    <t>GO:0030687</t>
+  </si>
+  <si>
+    <t>preribosome, large subunit precursor</t>
+  </si>
+  <si>
+    <t>GO:0005743</t>
+  </si>
+  <si>
+    <t>GO:0005813</t>
+  </si>
+  <si>
+    <t>centrosome</t>
+  </si>
+  <si>
+    <t>GO:0005911</t>
+  </si>
+  <si>
+    <t>GO:0097730</t>
+  </si>
+  <si>
+    <t>GO:0030018</t>
+  </si>
+  <si>
+    <t>GO:0015629</t>
+  </si>
+  <si>
+    <t>GO:0000148</t>
+  </si>
+  <si>
+    <t>1,3-beta-D-glucan synthase complex</t>
+  </si>
+  <si>
+    <t>GO:0019773</t>
+  </si>
+  <si>
+    <t>proteasome core complex, alpha-subunit complex</t>
+  </si>
+  <si>
+    <t>GO:0042613</t>
+  </si>
+  <si>
+    <t>GO:0045211</t>
+  </si>
+  <si>
+    <t>GO:0009941</t>
+  </si>
+  <si>
+    <t>GO:0032300</t>
+  </si>
+  <si>
+    <t>GO:0030289</t>
+  </si>
+  <si>
+    <t>GO:0031616</t>
+  </si>
+  <si>
+    <t>spindle</t>
+  </si>
+  <si>
+    <t>GO:0016363</t>
+  </si>
+  <si>
+    <t>GO:1990023</t>
+  </si>
+  <si>
+    <t>GO:1905720</t>
+  </si>
+  <si>
+    <t>GO:0097431</t>
+  </si>
+  <si>
+    <t>GO:0036449</t>
+  </si>
+  <si>
+    <t>GO:0097575</t>
+  </si>
+  <si>
+    <t>GO:0035371</t>
+  </si>
+  <si>
+    <t>GO:0061673</t>
+  </si>
+  <si>
+    <t>GO:0055028</t>
+  </si>
+  <si>
+    <t>GO:0005643</t>
+  </si>
+  <si>
+    <t>GO:0030956</t>
+  </si>
+  <si>
+    <t>GO:0016593</t>
+  </si>
+  <si>
+    <t>GO:0005786</t>
+  </si>
+  <si>
+    <t>signal recognition particle, endoplasmic reticulum targeting</t>
+  </si>
+  <si>
+    <t>GO:0005782</t>
+  </si>
+  <si>
+    <t>GO:0019028</t>
+  </si>
+  <si>
+    <t>GO:0032040</t>
+  </si>
+  <si>
+    <t>GO:0009424</t>
+  </si>
+  <si>
+    <t>GO:0009421</t>
+  </si>
+  <si>
+    <t>GO:0009338</t>
+  </si>
+  <si>
+    <t>GO:0042721</t>
+  </si>
+  <si>
+    <t>GO:0048500</t>
+  </si>
+  <si>
+    <t>GO:0031251</t>
+  </si>
+  <si>
+    <t>GO:0005891</t>
+  </si>
+  <si>
+    <t>GO:0045252</t>
+  </si>
+  <si>
+    <t>GO:0005819</t>
+  </si>
+  <si>
+    <t>GO:0000439</t>
+  </si>
+  <si>
+    <t>plasma membrane</t>
+  </si>
+  <si>
+    <t>tripartite ATP-independent periplasmic transporter complex</t>
+  </si>
+  <si>
+    <t>periplasmic space</t>
+  </si>
+  <si>
+    <t>ATP-binding cassette (ABC) transporter complex</t>
+  </si>
+  <si>
+    <t>integral component of plasma membrane</t>
+  </si>
+  <si>
+    <t>cell outer membrane</t>
+  </si>
+  <si>
+    <t>extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular region</t>
+  </si>
+  <si>
+    <t>nitrate reductase complex</t>
+  </si>
+  <si>
+    <t>GO:0005833</t>
+  </si>
+  <si>
+    <t>hemoglobin complex</t>
+  </si>
+  <si>
+    <t>outer membrane-bounded periplasmic space</t>
+  </si>
+  <si>
+    <t>GO:0031838</t>
+  </si>
+  <si>
+    <t>haptoglobin-hemoglobin complex</t>
+  </si>
+  <si>
+    <t>Golgi apparatus</t>
+  </si>
+  <si>
+    <t>extracellular exosome</t>
+  </si>
+  <si>
+    <t>endoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>outer membrane</t>
+  </si>
+  <si>
+    <t>GO:0019031</t>
+  </si>
+  <si>
+    <t>viral envelope</t>
+  </si>
+  <si>
+    <t>excinuclease repair complex</t>
+  </si>
+  <si>
+    <t>DNA polymerase III complex</t>
+  </si>
+  <si>
+    <t>primosome complex</t>
+  </si>
+  <si>
+    <t>cell wall</t>
+  </si>
+  <si>
+    <t>endoplasmic reticulum membrane</t>
+  </si>
+  <si>
+    <t>myosin complex</t>
+  </si>
+  <si>
+    <t>GO:0055036</t>
+  </si>
+  <si>
+    <t>virion membrane</t>
+  </si>
+  <si>
+    <t>protein-containing complex</t>
+  </si>
+  <si>
+    <t>GO:0009318</t>
+  </si>
+  <si>
+    <t>exodeoxyribonuclease VII complex</t>
+  </si>
+  <si>
+    <t>dynein complex</t>
+  </si>
+  <si>
+    <t>mitochondrial inner membrane</t>
+  </si>
+  <si>
+    <t>beta-galactosidase complex</t>
+  </si>
+  <si>
+    <t>intermediate filament</t>
+  </si>
+  <si>
+    <t>lipid droplet</t>
+  </si>
+  <si>
+    <t>GO:0043231</t>
+  </si>
+  <si>
+    <t>intracellular membrane-bounded organelle</t>
+  </si>
+  <si>
+    <t>polyphosphate kinase complex</t>
+  </si>
+  <si>
+    <t>GO:0009706</t>
+  </si>
+  <si>
+    <t>chloroplast inner membrane</t>
+  </si>
+  <si>
+    <t>mediator complex</t>
+  </si>
+  <si>
+    <t>GO:0005929</t>
+  </si>
+  <si>
+    <t>glutamyl-tRNA(Gln) amidotransferase complex</t>
+  </si>
+  <si>
+    <t>GO:0043564</t>
+  </si>
+  <si>
+    <t>Ku70:Ku80 complex</t>
+  </si>
+  <si>
+    <t>chloroplast thylakoid membrane</t>
+  </si>
+  <si>
+    <t>GO:0020002</t>
+  </si>
+  <si>
+    <t>host cell plasma membrane</t>
+  </si>
+  <si>
+    <t>GO:0019012</t>
+  </si>
+  <si>
+    <t>virion</t>
+  </si>
+  <si>
+    <t>viral capsid</t>
+  </si>
+  <si>
+    <t>GO:0033644</t>
+  </si>
+  <si>
+    <t>host cell membrane</t>
+  </si>
+  <si>
+    <t>GO:0044175</t>
+  </si>
+  <si>
+    <t>host cell endosome membrane</t>
+  </si>
+  <si>
+    <t>GO:0014069</t>
+  </si>
+  <si>
+    <t>postsynaptic density</t>
+  </si>
+  <si>
+    <t>actin filament</t>
+  </si>
+  <si>
+    <t>focal adhesion</t>
+  </si>
+  <si>
+    <t>dense body</t>
+  </si>
+  <si>
+    <t>NuA4 histone acetyltransferase complex</t>
+  </si>
+  <si>
+    <t>cytosolic small ribosomal subunit</t>
+  </si>
+  <si>
+    <t>bacterial-type flagellum filament</t>
+  </si>
+  <si>
+    <t>GO:0000407</t>
+  </si>
+  <si>
+    <t>phagophore assembly site</t>
+  </si>
+  <si>
+    <t>type II protein secretion system complex</t>
+  </si>
+  <si>
+    <t>GO:0080008</t>
+  </si>
+  <si>
+    <t>Cul4-RING E3 ubiquitin ligase complex</t>
+  </si>
+  <si>
+    <t>GO:0009897</t>
+  </si>
+  <si>
+    <t>external side of plasma membrane</t>
+  </si>
+  <si>
+    <t>collagen-containing extracellular matrix</t>
+  </si>
+  <si>
+    <t>GO:0034993</t>
+  </si>
+  <si>
+    <t>meiotic nuclear membrane microtubule tethering complex</t>
+  </si>
+  <si>
+    <t>GO:0031226</t>
+  </si>
+  <si>
+    <t>intrinsic component of plasma membrane</t>
+  </si>
+  <si>
+    <t>GO:0000151</t>
+  </si>
+  <si>
+    <t>ubiquitin ligase complex</t>
+  </si>
+  <si>
+    <t>chloroplast stroma</t>
+  </si>
+  <si>
+    <t>cell junction</t>
+  </si>
+  <si>
+    <t>postsynaptic membrane</t>
+  </si>
+  <si>
+    <t>GO:0008180</t>
+  </si>
+  <si>
+    <t>COP9 signalosome</t>
+  </si>
+  <si>
+    <t>GO:0030257</t>
+  </si>
+  <si>
+    <t>type III protein secretion system complex</t>
+  </si>
+  <si>
+    <t>GO:0019005</t>
+  </si>
+  <si>
+    <t>SCF ubiquitin ligase complex</t>
+  </si>
+  <si>
+    <t>small-subunit processome</t>
+  </si>
+  <si>
+    <t>GO:0000784</t>
+  </si>
+  <si>
+    <t>nuclear chromosome, telomeric region</t>
+  </si>
+  <si>
+    <t>GO:0008622</t>
+  </si>
+  <si>
+    <t>epsilon DNA polymerase complex</t>
+  </si>
+  <si>
+    <t>GO:0031314</t>
+  </si>
+  <si>
+    <t>extrinsic component of mitochondrial inner membrane</t>
+  </si>
+  <si>
+    <t>GO:0031012</t>
+  </si>
+  <si>
+    <t>extracellular matrix</t>
+  </si>
+  <si>
+    <t>GO:0042025</t>
+  </si>
+  <si>
+    <t>host cell nucleus</t>
+  </si>
+  <si>
+    <t>GO:0031932</t>
+  </si>
+  <si>
+    <t>TORC2 complex</t>
+  </si>
+  <si>
+    <t>transcription factor TFIIH core complex</t>
+  </si>
+  <si>
+    <t>GO:0048188</t>
+  </si>
+  <si>
+    <t>Set1C/COMPASS complex</t>
+  </si>
+  <si>
+    <t>GO:0005763</t>
+  </si>
+  <si>
+    <t>mitochondrial small ribosomal subunit</t>
+  </si>
+  <si>
+    <t>GO:0005669</t>
+  </si>
+  <si>
+    <t>transcription factor TFIID complex</t>
+  </si>
+  <si>
+    <t>GO:0009425</t>
+  </si>
+  <si>
+    <t>bacterial-type flagellum basal body</t>
+  </si>
+  <si>
+    <t>GO:0044222</t>
+  </si>
+  <si>
+    <t>anammoxosome</t>
+  </si>
+  <si>
+    <t>cell body</t>
+  </si>
+  <si>
+    <t>GO:1904724</t>
+  </si>
+  <si>
+    <t>tertiary granule lumen</t>
+  </si>
+  <si>
+    <t>ficolin-1-rich granule lumen</t>
+  </si>
+  <si>
+    <t>blood microparticle</t>
+  </si>
+  <si>
+    <t>GO:0071682</t>
+  </si>
+  <si>
+    <t>endocytic vesicle lumen</t>
+  </si>
+  <si>
+    <t>GO:0035354</t>
+  </si>
+  <si>
+    <t>Toll-like receptor 1-Toll-like receptor 2 protein complex</t>
+  </si>
+  <si>
+    <t>GO:0045121</t>
+  </si>
+  <si>
+    <t>membrane raft</t>
+  </si>
+  <si>
+    <t>GO:0000124</t>
+  </si>
+  <si>
+    <t>SAGA complex</t>
+  </si>
+  <si>
+    <t>GO:0046695</t>
+  </si>
+  <si>
+    <t>SLIK (SAGA-like) complex</t>
+  </si>
+  <si>
+    <t>GO:0016607</t>
+  </si>
+  <si>
+    <t>nuclear speck</t>
+  </si>
+  <si>
+    <t>GO:0008250</t>
+  </si>
+  <si>
+    <t>oligosaccharyltransferase complex</t>
+  </si>
+  <si>
+    <t>GO:0033588</t>
+  </si>
+  <si>
+    <t>Elongator holoenzyme complex</t>
+  </si>
+  <si>
+    <t>GO:0005849</t>
+  </si>
+  <si>
+    <t>mRNA cleavage factor complex</t>
+  </si>
+  <si>
+    <t>GO:0036064</t>
+  </si>
+  <si>
+    <t>ciliary basal body</t>
+  </si>
+  <si>
+    <t>GO:0009295</t>
+  </si>
+  <si>
+    <t>nucleoid</t>
+  </si>
+  <si>
+    <t>GO:0000262</t>
+  </si>
+  <si>
+    <t>mitochondrial chromosome</t>
+  </si>
+  <si>
+    <t>GO:0045025</t>
+  </si>
+  <si>
+    <t>mitochondrial degradosome</t>
+  </si>
+  <si>
+    <t>GO:0046930</t>
+  </si>
+  <si>
+    <t>pore complex</t>
+  </si>
+  <si>
+    <t>DNA replication factor C complex</t>
+  </si>
+  <si>
+    <t>GO:0000836</t>
+  </si>
+  <si>
+    <t>Hrd1p ubiquitin ligase complex</t>
+  </si>
+  <si>
+    <t>cytochrome complex</t>
+  </si>
+  <si>
+    <t>GO:0016442</t>
+  </si>
+  <si>
+    <t>RISC complex</t>
+  </si>
+  <si>
+    <t>oxoglutarate dehydrogenase complex</t>
+  </si>
+  <si>
+    <t>GO:0120135</t>
+  </si>
+  <si>
+    <t>distal portion of axoneme</t>
+  </si>
+  <si>
+    <t>GO:0097729</t>
+  </si>
+  <si>
+    <t>9+2 motile cilium</t>
+  </si>
+  <si>
+    <t>GO:0005779</t>
+  </si>
+  <si>
+    <t>integral component of peroxisomal membrane</t>
+  </si>
+  <si>
+    <t>GO:0030496</t>
+  </si>
+  <si>
+    <t>midbody</t>
+  </si>
+  <si>
+    <t>GO:0072686</t>
+  </si>
+  <si>
+    <t>mitotic spindle</t>
+  </si>
+  <si>
+    <t>GO:0000793</t>
+  </si>
+  <si>
+    <t>condensed chromosome</t>
+  </si>
+  <si>
+    <t>GO:0000796</t>
+  </si>
+  <si>
+    <t>condensin complex</t>
+  </si>
+  <si>
+    <t>GO:0009506</t>
+  </si>
+  <si>
+    <t>plasmodesma</t>
+  </si>
+  <si>
+    <t>GO:0032809</t>
+  </si>
+  <si>
+    <t>neuronal cell body membrane</t>
+  </si>
+  <si>
+    <t>GO:0043514</t>
+  </si>
+  <si>
+    <t>interleukin-12 complex</t>
+  </si>
+  <si>
+    <t>GO:0005896</t>
+  </si>
+  <si>
+    <t>interleukin-6 receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0016324</t>
+  </si>
+  <si>
+    <t>apical plasma membrane</t>
+  </si>
+  <si>
+    <t>GO:0070110</t>
+  </si>
+  <si>
+    <t>ciliary neurotrophic factor receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0070743</t>
+  </si>
+  <si>
+    <t>interleukin-23 complex</t>
+  </si>
+  <si>
+    <t>GO:0043235</t>
+  </si>
+  <si>
+    <t>receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0009376</t>
+  </si>
+  <si>
+    <t>HslUV protease complex</t>
+  </si>
+  <si>
+    <t>nuclear chromatin</t>
+  </si>
+  <si>
+    <t>glutamatergic synapse</t>
+  </si>
+  <si>
+    <t>GO:0005901</t>
+  </si>
+  <si>
+    <t>caveola</t>
+  </si>
+  <si>
+    <t>signal recognition particle</t>
+  </si>
+  <si>
+    <t>nuclear cap binding complex</t>
+  </si>
+  <si>
+    <t>GO:0071203</t>
+  </si>
+  <si>
+    <t>WASH complex</t>
+  </si>
+  <si>
+    <t>GO:0030014</t>
+  </si>
+  <si>
+    <t>CCR4-NOT complex</t>
+  </si>
+  <si>
+    <t>Golgi transport complex</t>
+  </si>
+  <si>
+    <t>GO:0020030</t>
+  </si>
+  <si>
+    <t>infected host cell surface knob</t>
+  </si>
+  <si>
+    <t>GO:0031262</t>
+  </si>
+  <si>
+    <t>Ndc80 complex</t>
+  </si>
+  <si>
+    <t>GO:0031389</t>
+  </si>
+  <si>
+    <t>Rad17 RFC-like complex</t>
+  </si>
+  <si>
+    <t>GO:0005581</t>
+  </si>
+  <si>
+    <t>collagen trimer</t>
+  </si>
+  <si>
+    <t>GO:0000932</t>
+  </si>
+  <si>
+    <t>P-body</t>
+  </si>
+  <si>
+    <t>GO:0043186</t>
+  </si>
+  <si>
+    <t>P granule</t>
+  </si>
+  <si>
+    <t>GO:0000502</t>
+  </si>
+  <si>
+    <t>proteasome complex</t>
+  </si>
+  <si>
+    <t>GO:0030430</t>
+  </si>
+  <si>
+    <t>host cell cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0016514</t>
+  </si>
+  <si>
+    <t>SWI/SNF complex</t>
+  </si>
+  <si>
+    <t>GO:0042825</t>
+  </si>
+  <si>
+    <t>TAP complex</t>
+  </si>
+  <si>
+    <t>GO:0005839</t>
+  </si>
+  <si>
+    <t>proteasome core complex</t>
+  </si>
+  <si>
+    <t>GO:0005765</t>
+  </si>
+  <si>
+    <t>lysosomal membrane</t>
+  </si>
+  <si>
+    <t>GO:0005764</t>
+  </si>
+  <si>
+    <t>lysosome</t>
+  </si>
+  <si>
+    <t>GO:0019029</t>
+  </si>
+  <si>
+    <t>helical viral capsid</t>
+  </si>
+  <si>
+    <t>GO:0019013</t>
+  </si>
+  <si>
+    <t>viral nucleocapsid</t>
+  </si>
+  <si>
+    <t>GO:0005935</t>
+  </si>
+  <si>
+    <t>cellular bud neck</t>
+  </si>
+  <si>
+    <t>GO:0005769</t>
+  </si>
+  <si>
+    <t>early endosome</t>
+  </si>
+  <si>
+    <t>GO:0005902</t>
+  </si>
+  <si>
+    <t>microvillus</t>
+  </si>
+  <si>
+    <t>GO:0009986</t>
+  </si>
+  <si>
+    <t>cell surface</t>
+  </si>
+  <si>
+    <t>GO:0032865</t>
+  </si>
+  <si>
+    <t>ERMES complex</t>
+  </si>
+  <si>
+    <t>integral component of endoplasmic reticulum membrane</t>
+  </si>
+  <si>
+    <t>anchored component of membrane</t>
+  </si>
+  <si>
+    <t>nuclear body</t>
+  </si>
+  <si>
+    <t>GO:0016589</t>
+  </si>
+  <si>
+    <t>NURF complex</t>
+  </si>
+  <si>
+    <t>GO:0005675</t>
+  </si>
+  <si>
+    <t>transcription factor TFIIH holo complex</t>
+  </si>
+  <si>
+    <t>GO:0000112</t>
+  </si>
+  <si>
+    <t>nucleotide-excision repair factor 3 complex</t>
+  </si>
+  <si>
+    <t>GO:0019815</t>
+  </si>
+  <si>
+    <t>B cell receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0042571</t>
+  </si>
+  <si>
+    <t>immunoglobulin complex, circulating</t>
+  </si>
+  <si>
+    <t>GO:0000775</t>
+  </si>
+  <si>
+    <t>chromosome, centromeric region</t>
+  </si>
+  <si>
+    <t>GO:0030870</t>
+  </si>
+  <si>
+    <t>Mre11 complex</t>
+  </si>
+  <si>
+    <t>GO:0035101</t>
+  </si>
+  <si>
+    <t>FACT complex</t>
+  </si>
+  <si>
+    <t>GO:0030121</t>
+  </si>
+  <si>
+    <t>AP-1 adaptor complex</t>
+  </si>
+  <si>
+    <t>GO:0030992</t>
+  </si>
+  <si>
+    <t>intraciliary transport particle B</t>
+  </si>
+  <si>
+    <t>GO:0000779</t>
+  </si>
+  <si>
+    <t>condensed chromosome, centromeric region</t>
+  </si>
+  <si>
+    <t>GO:0000799</t>
+  </si>
+  <si>
+    <t>nuclear condensin complex</t>
+  </si>
+  <si>
+    <t>GO:0009349</t>
+  </si>
+  <si>
+    <t>riboflavin synthase complex</t>
+  </si>
+  <si>
+    <t>GO:0010494</t>
+  </si>
+  <si>
+    <t>cytoplasmic stress granule</t>
+  </si>
+  <si>
+    <t>GO:0043596</t>
+  </si>
+  <si>
+    <t>nuclear replication fork</t>
+  </si>
+  <si>
+    <t>GO:0016323</t>
+  </si>
+  <si>
+    <t>basolateral plasma membrane</t>
+  </si>
+  <si>
+    <t>GO:0046540</t>
+  </si>
+  <si>
+    <t>U4/U6 x U5 tri-snRNP complex</t>
+  </si>
+  <si>
+    <t>GO:0005868</t>
+  </si>
+  <si>
+    <t>cytoplasmic dynein complex</t>
+  </si>
+  <si>
+    <t>GO:0005956</t>
+  </si>
+  <si>
+    <t>protein kinase CK2 complex</t>
+  </si>
+  <si>
+    <t>GO:0044214</t>
+  </si>
+  <si>
+    <t>spanning component of plasma membrane</t>
+  </si>
+  <si>
+    <t>GO:0034451</t>
+  </si>
+  <si>
+    <t>centriolar satellite</t>
+  </si>
+  <si>
+    <t>GO:0005778</t>
+  </si>
+  <si>
+    <t>peroxisomal membrane</t>
+  </si>
+  <si>
+    <t>GO:0009317</t>
+  </si>
+  <si>
+    <t>acetyl-CoA carboxylase complex</t>
+  </si>
+  <si>
+    <t>Z disc</t>
+  </si>
+  <si>
+    <t>Arp2/3 protein complex</t>
+  </si>
+  <si>
+    <t>GO:0005640</t>
+  </si>
+  <si>
+    <t>nuclear outer membrane</t>
+  </si>
+  <si>
+    <t>GO:0005635</t>
+  </si>
+  <si>
+    <t>nuclear envelope</t>
+  </si>
+  <si>
+    <t>perinuclear region of cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0030077</t>
+  </si>
+  <si>
+    <t>plasma membrane light-harvesting complex</t>
+  </si>
+  <si>
+    <t>mismatch repair complex</t>
+  </si>
+  <si>
+    <t>GO:0005965</t>
+  </si>
+  <si>
+    <t>protein farnesyltransferase complex</t>
+  </si>
+  <si>
+    <t>ribonucleoprotein complex</t>
+  </si>
+  <si>
+    <t>GO:0000276</t>
+  </si>
+  <si>
+    <t>mitochondrial proton-transporting ATP synthase complex, coupling factor F(o)</t>
+  </si>
+  <si>
+    <t>GO:0000178</t>
+  </si>
+  <si>
+    <t>exosome (RNase complex)</t>
+  </si>
+  <si>
+    <t>GO:0042612</t>
+  </si>
+  <si>
+    <t>MHC class I protein complex</t>
+  </si>
+  <si>
+    <t>GO:0001650</t>
+  </si>
+  <si>
+    <t>fibrillar center</t>
+  </si>
+  <si>
+    <t>GO:0097225</t>
+  </si>
+  <si>
+    <t>sperm midpiece</t>
+  </si>
+  <si>
+    <t>GO:0001669</t>
+  </si>
+  <si>
+    <t>acrosomal vesicle</t>
+  </si>
+  <si>
+    <t>GO:0016010</t>
+  </si>
+  <si>
+    <t>dystrophin-associated glycoprotein complex</t>
+  </si>
+  <si>
+    <t>GO:0031207</t>
+  </si>
+  <si>
+    <t>Sec62/Sec63 complex</t>
+  </si>
+  <si>
+    <t>GO:0039618</t>
+  </si>
+  <si>
+    <t>T=pseudo3 icosahedral viral capsid</t>
+  </si>
+  <si>
+    <t>GO:0044162</t>
+  </si>
+  <si>
+    <t>host cell cytoplasmic vesicle membrane</t>
+  </si>
+  <si>
+    <t>GO:0044385</t>
+  </si>
+  <si>
+    <t>integral to membrane of host cell</t>
+  </si>
+  <si>
+    <t>cytoplasmic ribonucleoprotein granule</t>
+  </si>
+  <si>
+    <t>spliceosomal complex</t>
+  </si>
+  <si>
+    <t>GO:0043025</t>
+  </si>
+  <si>
+    <t>neuronal cell body</t>
+  </si>
+  <si>
+    <t>GO:0008091</t>
+  </si>
+  <si>
+    <t>spectrin</t>
+  </si>
+  <si>
+    <t>GO:0045254</t>
+  </si>
+  <si>
+    <t>pyruvate dehydrogenase complex</t>
+  </si>
+  <si>
+    <t>GO:0022625</t>
+  </si>
+  <si>
+    <t>cytosolic large ribosomal subunit</t>
+  </si>
+  <si>
+    <t>GO:0005666</t>
+  </si>
+  <si>
+    <t>RNA polymerase III complex</t>
+  </si>
+  <si>
+    <t>GO:0098831</t>
+  </si>
+  <si>
+    <t>presynaptic active zone cytoplasmic component</t>
+  </si>
+  <si>
+    <t>GO:0048786</t>
+  </si>
+  <si>
+    <t>presynaptic active zone</t>
+  </si>
+  <si>
+    <t>GO:0045202</t>
+  </si>
+  <si>
+    <t>GO:0005871</t>
+  </si>
+  <si>
+    <t>kinesin complex</t>
+  </si>
+  <si>
+    <t>eukaryotic translation initiation factor 3 complex</t>
+  </si>
+  <si>
+    <t>eukaryotic 43S preinitiation complex</t>
+  </si>
+  <si>
+    <t>eukaryotic 48S preinitiation complex</t>
+  </si>
+  <si>
+    <t>GO:0031931</t>
+  </si>
+  <si>
+    <t>TORC1 complex</t>
+  </si>
+  <si>
+    <t>GO:0032281</t>
+  </si>
+  <si>
+    <t>AMPA glutamate receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0039622</t>
+  </si>
+  <si>
+    <t>T=16 icosahedral viral capsid</t>
+  </si>
+  <si>
+    <t>bacterial-type flagellum</t>
+  </si>
+  <si>
+    <t>Smc5-Smc6 complex</t>
+  </si>
+  <si>
+    <t>GO:0005685</t>
+  </si>
+  <si>
+    <t>U1 snRNP</t>
+  </si>
+  <si>
+    <t>MHC class II protein complex</t>
+  </si>
+  <si>
+    <t>GO:0032993</t>
+  </si>
+  <si>
+    <t>protein-DNA complex</t>
+  </si>
+  <si>
+    <t>GO:0005667</t>
+  </si>
+  <si>
+    <t>transcription factor complex</t>
+  </si>
+  <si>
+    <t>GO:0005958</t>
+  </si>
+  <si>
+    <t>DNA-dependent protein kinase-DNA ligase 4 complex</t>
+  </si>
+  <si>
+    <t>GO:0009316</t>
+  </si>
+  <si>
+    <t>3-isopropylmalate dehydratase complex</t>
+  </si>
+  <si>
+    <t>nuclear chromosome</t>
+  </si>
+  <si>
+    <t>GO:0009379</t>
+  </si>
+  <si>
+    <t>Holliday junction helicase complex</t>
+  </si>
+  <si>
+    <t>GO:0017101</t>
+  </si>
+  <si>
+    <t>aminoacyl-tRNA synthetase multienzyme complex</t>
+  </si>
+  <si>
+    <t>GO:0005788</t>
+  </si>
+  <si>
+    <t>endoplasmic reticulum lumen</t>
+  </si>
+  <si>
+    <t>GO:0005844</t>
+  </si>
+  <si>
+    <t>polysome</t>
+  </si>
+  <si>
+    <t>GO:0009524</t>
+  </si>
+  <si>
+    <t>phragmoplast</t>
+  </si>
+  <si>
+    <t>GO:0045335</t>
+  </si>
+  <si>
+    <t>phagocytic vesicle</t>
+  </si>
+  <si>
+    <t>voltage-gated calcium channel complex</t>
+  </si>
+  <si>
+    <t>GO:0030424</t>
+  </si>
+  <si>
+    <t>axon</t>
+  </si>
+  <si>
+    <t>GO:0005759</t>
+  </si>
+  <si>
+    <t>mitochondrial matrix</t>
+  </si>
+  <si>
+    <t>GO:0001518</t>
+  </si>
+  <si>
+    <t>voltage-gated sodium channel complex</t>
+  </si>
+  <si>
+    <t>GO:0030127</t>
+  </si>
+  <si>
+    <t>COPII vesicle coat</t>
+  </si>
+  <si>
+    <t>GO:0008540</t>
+  </si>
+  <si>
+    <t>proteasome regulatory particle, base subcomplex</t>
+  </si>
+  <si>
+    <t>glycerol-3-phosphate dehydrogenase complex</t>
+  </si>
+  <si>
+    <t>cornified envelope</t>
+  </si>
+  <si>
+    <t>keratin filament</t>
+  </si>
+  <si>
+    <t>Golgi membrane</t>
+  </si>
+  <si>
+    <t>ribonucleoside-diphosphate reductase complex</t>
+  </si>
+  <si>
+    <t>trans-Golgi network</t>
+  </si>
+  <si>
+    <t>extrinsic component of plasma membrane</t>
+  </si>
+  <si>
+    <t>Ino80 complex</t>
+  </si>
+  <si>
+    <t>RIC1-RGP1 guanyl-nucleotide exchange factor complex</t>
+  </si>
+  <si>
+    <t>interphotoreceptor matrix</t>
+  </si>
+  <si>
+    <t>radial spoke</t>
+  </si>
+  <si>
+    <t>Golgi cisterna</t>
+  </si>
+  <si>
+    <t>cortical cytoskeleton</t>
+  </si>
+  <si>
+    <t>postsynaptic actin cytoskeleton</t>
+  </si>
+  <si>
+    <t>Schaffer collateral - CA1 synapse</t>
+  </si>
+  <si>
+    <t>calyx of Held</t>
+  </si>
+  <si>
+    <t>mitochondrial outer membrane</t>
+  </si>
+  <si>
+    <t>clathrin coat of coated pit</t>
+  </si>
+  <si>
+    <t>clathrin coat of trans-Golgi network vesicle</t>
+  </si>
+  <si>
+    <t>intrinsic component of the cytoplasmic side of the plasma membrane</t>
+  </si>
+  <si>
+    <t>anaphase-promoting complex</t>
+  </si>
+  <si>
+    <t>motile cilium</t>
+  </si>
+  <si>
+    <t>cullin-RING ubiquitin ligase complex</t>
+  </si>
+  <si>
+    <t>polysomal ribosome</t>
+  </si>
+  <si>
+    <t>fatty acid synthase complex</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor complex</t>
+  </si>
+  <si>
+    <t>integral component of Golgi membrane</t>
+  </si>
+  <si>
+    <t>box H/ACA snoRNP complex</t>
+  </si>
+  <si>
+    <t>RQC complex</t>
+  </si>
+  <si>
+    <t>sarcoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>COPII-coated ER to Golgi transport vesicle</t>
+  </si>
+  <si>
+    <t>multivesicular body</t>
+  </si>
+  <si>
+    <t>fungal-type vacuole lumen</t>
+  </si>
+  <si>
+    <t>cell-cell junction</t>
+  </si>
+  <si>
+    <t>non-motile cilium</t>
+  </si>
+  <si>
+    <t>actin cytoskeleton</t>
+  </si>
+  <si>
+    <t>chloroplast envelope</t>
+  </si>
+  <si>
+    <t>protein phosphatase 4 complex</t>
+  </si>
+  <si>
+    <t>spindle pole centrosome</t>
+  </si>
+  <si>
+    <t>nuclear matrix</t>
+  </si>
+  <si>
+    <t>mitotic spindle midzone</t>
+  </si>
+  <si>
+    <t>cytoplasmic microtubule bundle</t>
+  </si>
+  <si>
+    <t>mitotic spindle pole</t>
+  </si>
+  <si>
+    <t>microtubule minus-end</t>
+  </si>
+  <si>
+    <t>lateral cell cortex</t>
+  </si>
+  <si>
+    <t>microtubule plus-end</t>
+  </si>
+  <si>
+    <t>mitotic spindle astral microtubule</t>
+  </si>
+  <si>
+    <t>cortical microtubule</t>
+  </si>
+  <si>
+    <t>nuclear pore</t>
+  </si>
+  <si>
+    <t>Cdc73/Paf1 complex</t>
+  </si>
+  <si>
+    <t>peroxisomal matrix</t>
+  </si>
+  <si>
+    <t>bacterial-type flagellum hook</t>
+  </si>
+  <si>
+    <t>bacterial-type flagellum filament cap</t>
+  </si>
+  <si>
+    <t>exodeoxyribonuclease V complex</t>
+  </si>
+  <si>
+    <t>TIM22 mitochondrial import inner membrane insertion complex</t>
+  </si>
+  <si>
+    <t>PAN complex</t>
+  </si>
+  <si>
+    <t>GO:0000159</t>
+  </si>
+  <si>
+    <t>protein phosphatase type 2A complex</t>
+  </si>
+  <si>
+    <t>GO:0048046</t>
+  </si>
+  <si>
+    <t>apoplast</t>
+  </si>
+  <si>
+    <t>GO:0032039</t>
+  </si>
+  <si>
+    <t>integrator complex</t>
+  </si>
+  <si>
+    <t>GO:0005940</t>
+  </si>
+  <si>
+    <t>septin ring</t>
+  </si>
+  <si>
+    <t>GO:0031463</t>
+  </si>
+  <si>
+    <t>Cul3-RING ubiquitin ligase complex</t>
+  </si>
+  <si>
+    <t>GO:0044697</t>
+  </si>
+  <si>
+    <t>HICS complex</t>
+  </si>
+  <si>
+    <t>GO:0000142</t>
+  </si>
+  <si>
+    <t>cellular bud neck contractile ring</t>
+  </si>
+  <si>
+    <t>GO:0005774</t>
+  </si>
+  <si>
+    <t>vacuolar membrane</t>
+  </si>
+  <si>
+    <t>GO:0044173</t>
+  </si>
+  <si>
+    <t>host cell endoplasmic reticulum-Golgi intermediate compartment membrane</t>
+  </si>
+  <si>
+    <t>GO:0097347</t>
+  </si>
+  <si>
+    <t>TAM protein secretion complex</t>
+  </si>
+  <si>
+    <t>GO:0036038</t>
+  </si>
+  <si>
+    <t>MKS complex</t>
+  </si>
+  <si>
+    <t>GO:0044322</t>
+  </si>
+  <si>
+    <t>endoplasmic reticulum quality control compartment</t>
+  </si>
+  <si>
+    <t>GO:0015630</t>
+  </si>
+  <si>
+    <t>microtubule cytoskeleton</t>
+  </si>
+  <si>
+    <t>GO:0005790</t>
+  </si>
+  <si>
+    <t>smooth endoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>GO:0045169</t>
+  </si>
+  <si>
+    <t>fusome</t>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>endosome</t>
+  </si>
+  <si>
+    <t>GO:0012510</t>
+  </si>
+  <si>
+    <t>trans-Golgi network transport vesicle membrane</t>
+  </si>
+  <si>
+    <t>GO:0030015</t>
+  </si>
+  <si>
+    <t>CCR4-NOT core complex</t>
+  </si>
+  <si>
+    <t>GO:0000347</t>
+  </si>
+  <si>
+    <t>THO complex</t>
+  </si>
+  <si>
+    <t>GO:0005847</t>
+  </si>
+  <si>
+    <t>mRNA cleavage and polyadenylation specificity factor complex</t>
+  </si>
+  <si>
+    <t>GO:0071752</t>
+  </si>
+  <si>
+    <t>secretory dimeric IgA immunoglobulin complex</t>
+  </si>
+  <si>
+    <t>GO:0071756</t>
+  </si>
+  <si>
+    <t>pentameric IgM immunoglobulin complex</t>
+  </si>
+  <si>
+    <t>GO:0071748</t>
+  </si>
+  <si>
+    <t>monomeric IgA immunoglobulin complex</t>
+  </si>
+  <si>
+    <t>GO:0030131</t>
+  </si>
+  <si>
+    <t>clathrin adaptor complex</t>
+  </si>
+  <si>
+    <t>GO:0008305</t>
+  </si>
+  <si>
+    <t>integrin complex</t>
+  </si>
+  <si>
+    <t>GO:0005744</t>
+  </si>
+  <si>
+    <t>TIM23 mitochondrial import inner membrane translocase complex</t>
+  </si>
+  <si>
+    <t>GO:0009346</t>
+  </si>
+  <si>
+    <t>citrate lyase complex</t>
+  </si>
+  <si>
+    <t>GO:0005853</t>
+  </si>
+  <si>
+    <t>eukaryotic translation elongation factor 1 complex</t>
+  </si>
+  <si>
+    <t>GO:0043240</t>
+  </si>
+  <si>
+    <t>Fanconi anaemia nuclear complex</t>
+  </si>
+  <si>
+    <t>GO:0044220</t>
+  </si>
+  <si>
+    <t>host cell perinuclear region of cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005938</t>
+  </si>
+  <si>
+    <t>cell cortex</t>
+  </si>
+  <si>
+    <t>GO:0032299</t>
+  </si>
+  <si>
+    <t>ribonuclease H2 complex</t>
+  </si>
+  <si>
+    <t>GO:0005875</t>
+  </si>
+  <si>
+    <t>microtubule associated complex</t>
+  </si>
+  <si>
+    <t>GO:0012506</t>
+  </si>
+  <si>
+    <t>vesicle membrane</t>
+  </si>
+  <si>
+    <t>GO:0035301</t>
+  </si>
+  <si>
+    <t>Hedgehog signaling complex</t>
+  </si>
+  <si>
+    <t>GO:0031966</t>
+  </si>
+  <si>
+    <t>mitochondrial membrane</t>
+  </si>
+  <si>
+    <t>GO:0031305</t>
+  </si>
+  <si>
+    <t>integral component of mitochondrial inner membrane</t>
+  </si>
+  <si>
+    <t>GO:0000221</t>
+  </si>
+  <si>
+    <t>vacuolar proton-transporting V-type ATPase, V1 domain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -964,201 +3093,6490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>398</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" t="s">
+        <v>631</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+      <c r="K106" t="s">
+        <v>32</v>
+      </c>
+      <c r="L106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>164</v>
+      </c>
+      <c r="C122" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>167</v>
+      </c>
+      <c r="C125" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>185</v>
+      </c>
+      <c r="C139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>191</v>
+      </c>
+      <c r="C144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>193</v>
+      </c>
+      <c r="C145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>195</v>
+      </c>
+      <c r="C146" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>196</v>
+      </c>
+      <c r="C147" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>197</v>
+      </c>
+      <c r="C148" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>205</v>
+      </c>
+      <c r="C155" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>207</v>
+      </c>
+      <c r="C157" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>208</v>
+      </c>
+      <c r="C158" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>209</v>
+      </c>
+      <c r="C159" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>210</v>
+      </c>
+      <c r="C160" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>211</v>
+      </c>
+      <c r="C161" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>212</v>
+      </c>
+      <c r="C162" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>213</v>
+      </c>
+      <c r="C163" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>214</v>
+      </c>
+      <c r="C164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>216</v>
+      </c>
+      <c r="C165" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>219</v>
+      </c>
+      <c r="C168" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>220</v>
+      </c>
+      <c r="C169" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>221</v>
+      </c>
+      <c r="C170" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>222</v>
+      </c>
+      <c r="C171" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>223</v>
+      </c>
+      <c r="C172" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>224</v>
+      </c>
+      <c r="C173" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>225</v>
+      </c>
+      <c r="C174" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>226</v>
+      </c>
+      <c r="C175" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>227</v>
+      </c>
+      <c r="C176" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>228</v>
+      </c>
+      <c r="C177" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B1F4B-AC59-B245-9768-62B3B0F5B4BD}">
+  <dimension ref="A1:C266"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>994</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>544</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>305</v>
+      </c>
+      <c r="C82" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>310</v>
+      </c>
+      <c r="C86" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>325</v>
+      </c>
+      <c r="C96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>327</v>
+      </c>
+      <c r="C97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>338</v>
+      </c>
+      <c r="C103" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>341</v>
+      </c>
+      <c r="C107" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>345</v>
+      </c>
+      <c r="C110" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>347</v>
+      </c>
+      <c r="C111" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>349</v>
+      </c>
+      <c r="C112" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>351</v>
+      </c>
+      <c r="C113" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>355</v>
+      </c>
+      <c r="C115" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>357</v>
+      </c>
+      <c r="C116" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>359</v>
+      </c>
+      <c r="C117" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>361</v>
+      </c>
+      <c r="C118" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>363</v>
+      </c>
+      <c r="C119" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>365</v>
+      </c>
+      <c r="C120" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>367</v>
+      </c>
+      <c r="C121" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+      <c r="C122" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>371</v>
+      </c>
+      <c r="C123" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>374</v>
+      </c>
+      <c r="C125" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>380</v>
+      </c>
+      <c r="C129" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>382</v>
+      </c>
+      <c r="C130" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>384</v>
+      </c>
+      <c r="C131" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>386</v>
+      </c>
+      <c r="C132" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>388</v>
+      </c>
+      <c r="C133" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>390</v>
+      </c>
+      <c r="C134" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>392</v>
+      </c>
+      <c r="C135" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>394</v>
+      </c>
+      <c r="C136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>396</v>
+      </c>
+      <c r="C137" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>398</v>
+      </c>
+      <c r="C138" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>400</v>
+      </c>
+      <c r="C139" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>404</v>
+      </c>
+      <c r="C141" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>406</v>
+      </c>
+      <c r="C142" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>408</v>
+      </c>
+      <c r="C143" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>410</v>
+      </c>
+      <c r="C144" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>414</v>
+      </c>
+      <c r="C147" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>172</v>
+      </c>
+      <c r="C149" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>418</v>
+      </c>
+      <c r="C150" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>420</v>
+      </c>
+      <c r="C151" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>181</v>
+      </c>
+      <c r="C152" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>423</v>
+      </c>
+      <c r="C153" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>425</v>
+      </c>
+      <c r="C154" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>214</v>
+      </c>
+      <c r="C155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>128</v>
+      </c>
+      <c r="C156" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>427</v>
+      </c>
+      <c r="C157" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>429</v>
+      </c>
+      <c r="C158" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>431</v>
+      </c>
+      <c r="C159" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>433</v>
+      </c>
+      <c r="C160" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>435</v>
+      </c>
+      <c r="C161" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>437</v>
+      </c>
+      <c r="C162" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>439</v>
+      </c>
+      <c r="C163" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>441</v>
+      </c>
+      <c r="C164" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>443</v>
+      </c>
+      <c r="C165" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>445</v>
+      </c>
+      <c r="C166" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>447</v>
+      </c>
+      <c r="C167" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>182</v>
+      </c>
+      <c r="C168" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>449</v>
+      </c>
+      <c r="C169" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>451</v>
+      </c>
+      <c r="C170" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C171" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>453</v>
+      </c>
+      <c r="C172" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>455</v>
+      </c>
+      <c r="C173" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>457</v>
+      </c>
+      <c r="C174" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>459</v>
+      </c>
+      <c r="C175" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>461</v>
+      </c>
+      <c r="C176" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C177" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>159</v>
+      </c>
+      <c r="C178" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
+        <v>131</v>
+      </c>
+      <c r="C179" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180" t="s">
+        <v>466</v>
+      </c>
+      <c r="C180" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" t="s">
+        <v>468</v>
+      </c>
+      <c r="C181" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
+        <v>470</v>
+      </c>
+      <c r="C182" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183" t="s">
+        <v>472</v>
+      </c>
+      <c r="C183" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>474</v>
+      </c>
+      <c r="C184" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
+        <v>476</v>
+      </c>
+      <c r="C185" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>478</v>
+      </c>
+      <c r="C186" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>480</v>
+      </c>
+      <c r="C187" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>482</v>
+      </c>
+      <c r="C188" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
+        <v>484</v>
+      </c>
+      <c r="C189" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
+        <v>486</v>
+      </c>
+      <c r="C190" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191" t="s">
+        <v>488</v>
+      </c>
+      <c r="C191" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192" t="s">
+        <v>490</v>
+      </c>
+      <c r="C192" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193" t="s">
+        <v>492</v>
+      </c>
+      <c r="C193" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>103</v>
+      </c>
+      <c r="C194" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195" t="s">
+        <v>494</v>
+      </c>
+      <c r="C195" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
+        <v>496</v>
+      </c>
+      <c r="C196" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>498</v>
+      </c>
+      <c r="C197" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199" t="s">
+        <v>500</v>
+      </c>
+      <c r="C199" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>502</v>
+      </c>
+      <c r="C200" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201" t="s">
+        <v>504</v>
+      </c>
+      <c r="C201" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>506</v>
+      </c>
+      <c r="C202" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
+        <v>508</v>
+      </c>
+      <c r="C203" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204" t="s">
+        <v>510</v>
+      </c>
+      <c r="C204" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>189</v>
+      </c>
+      <c r="C205" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>96</v>
+      </c>
+      <c r="C206" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
+        <v>514</v>
+      </c>
+      <c r="C207" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208" t="s">
+        <v>516</v>
+      </c>
+      <c r="C208" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>95</v>
+      </c>
+      <c r="C209" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210" t="s">
+        <v>519</v>
+      </c>
+      <c r="C210" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>198</v>
+      </c>
+      <c r="C212" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
+        <v>522</v>
+      </c>
+      <c r="C213" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>156</v>
+      </c>
+      <c r="C214" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
+        <v>525</v>
+      </c>
+      <c r="C215" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>527</v>
+      </c>
+      <c r="C216" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
+        <v>529</v>
+      </c>
+      <c r="C217" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>531</v>
+      </c>
+      <c r="C218" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>533</v>
+      </c>
+      <c r="C219" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>535</v>
+      </c>
+      <c r="C220" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>537</v>
+      </c>
+      <c r="C221" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>539</v>
+      </c>
+      <c r="C222" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>541</v>
+      </c>
+      <c r="C223" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>543</v>
+      </c>
+      <c r="C224" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>545</v>
+      </c>
+      <c r="C225" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>133</v>
+      </c>
+      <c r="C226" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>101</v>
+      </c>
+      <c r="C227" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>549</v>
+      </c>
+      <c r="C228" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>551</v>
+      </c>
+      <c r="C229" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230" t="s">
+        <v>126</v>
+      </c>
+      <c r="C230" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>553</v>
+      </c>
+      <c r="C231" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232" t="s">
+        <v>555</v>
+      </c>
+      <c r="C232" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>557</v>
+      </c>
+      <c r="C233" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>559</v>
+      </c>
+      <c r="C234" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>561</v>
+      </c>
+      <c r="C235" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
+        <v>563</v>
+      </c>
+      <c r="C236" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237" t="s">
+        <v>564</v>
+      </c>
+      <c r="C237" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238" t="s">
+        <v>150</v>
+      </c>
+      <c r="C238" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239" t="s">
+        <v>151</v>
+      </c>
+      <c r="C239" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240" t="s">
+        <v>152</v>
+      </c>
+      <c r="C240" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241" t="s">
+        <v>569</v>
+      </c>
+      <c r="C241" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242" t="s">
+        <v>571</v>
+      </c>
+      <c r="C242" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" t="s">
+        <v>573</v>
+      </c>
+      <c r="C243" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244" t="s">
+        <v>86</v>
+      </c>
+      <c r="C244" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
+        <v>120</v>
+      </c>
+      <c r="C245" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
+        <v>577</v>
+      </c>
+      <c r="C246" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>195</v>
+      </c>
+      <c r="C247" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248" t="s">
+        <v>580</v>
+      </c>
+      <c r="C248" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>582</v>
+      </c>
+      <c r="C249" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250" t="s">
+        <v>584</v>
+      </c>
+      <c r="C250" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251" t="s">
+        <v>586</v>
+      </c>
+      <c r="C251" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252" t="s">
+        <v>167</v>
+      </c>
+      <c r="C252" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253" t="s">
+        <v>589</v>
+      </c>
+      <c r="C253" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254" t="s">
+        <v>591</v>
+      </c>
+      <c r="C254" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>593</v>
+      </c>
+      <c r="C255" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>595</v>
+      </c>
+      <c r="C256" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257" t="s">
+        <v>227</v>
+      </c>
+      <c r="C257" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258" t="s">
+        <v>597</v>
+      </c>
+      <c r="C258" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>599</v>
+      </c>
+      <c r="C259" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260" t="s">
+        <v>225</v>
+      </c>
+      <c r="C260" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>602</v>
+      </c>
+      <c r="C261" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262" t="s">
+        <v>604</v>
+      </c>
+      <c r="C262" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>606</v>
+      </c>
+      <c r="C263" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>608</v>
+      </c>
+      <c r="C264" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265" t="s">
+        <v>610</v>
+      </c>
+      <c r="C265" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266" t="s">
+        <v>76</v>
+      </c>
+      <c r="C266" t="s">
+        <v>612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA384E26-EB23-FE48-AF0A-B9CE4E351FF4}">
+  <dimension ref="A1:C142"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>488</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>668</v>
+      </c>
+      <c r="C37" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>670</v>
+      </c>
+      <c r="C39" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>466</v>
+      </c>
+      <c r="C47" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>672</v>
+      </c>
+      <c r="C55" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>674</v>
+      </c>
+      <c r="C59" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>676</v>
+      </c>
+      <c r="C60" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>678</v>
+      </c>
+      <c r="C64" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>680</v>
+      </c>
+      <c r="C65" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>682</v>
+      </c>
+      <c r="C69" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>684</v>
+      </c>
+      <c r="C72" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>686</v>
+      </c>
+      <c r="C75" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>688</v>
+      </c>
+      <c r="C76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>690</v>
+      </c>
+      <c r="C77" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>692</v>
+      </c>
+      <c r="C79" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>694</v>
+      </c>
+      <c r="C80" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>696</v>
+      </c>
+      <c r="C81" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>698</v>
+      </c>
+      <c r="C85" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>700</v>
+      </c>
+      <c r="C86" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>510</v>
+      </c>
+      <c r="C87" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>702</v>
+      </c>
+      <c r="C88" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>704</v>
+      </c>
+      <c r="C90" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>502</v>
+      </c>
+      <c r="C92" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>706</v>
+      </c>
+      <c r="C93" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>305</v>
+      </c>
+      <c r="C94" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>708</v>
+      </c>
+      <c r="C97" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>710</v>
+      </c>
+      <c r="C98" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>712</v>
+      </c>
+      <c r="C99" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>494</v>
+      </c>
+      <c r="C100" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>714</v>
+      </c>
+      <c r="C101" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>604</v>
+      </c>
+      <c r="C102" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>459</v>
+      </c>
+      <c r="C104" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>602</v>
+      </c>
+      <c r="C105" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>549</v>
+      </c>
+      <c r="C106" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>716</v>
+      </c>
+      <c r="C108" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>327</v>
+      </c>
+      <c r="C109" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>476</v>
+      </c>
+      <c r="C110" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>718</v>
+      </c>
+      <c r="C112" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>720</v>
+      </c>
+      <c r="C115" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>445</v>
+      </c>
+      <c r="C116" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>722</v>
+      </c>
+      <c r="C119" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>724</v>
+      </c>
+      <c r="C120" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>726</v>
+      </c>
+      <c r="C121" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>281</v>
+      </c>
+      <c r="C122" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>728</v>
+      </c>
+      <c r="C123" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>586</v>
+      </c>
+      <c r="C124" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>148</v>
+      </c>
+      <c r="C128" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>498</v>
+      </c>
+      <c r="C130" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>730</v>
+      </c>
+      <c r="C131" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>732</v>
+      </c>
+      <c r="C132" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>271</v>
+      </c>
+      <c r="C133" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>734</v>
+      </c>
+      <c r="C134" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>736</v>
+      </c>
+      <c r="C135" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>738</v>
+      </c>
+      <c r="C137" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>740</v>
+      </c>
+      <c r="C139" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>182</v>
+      </c>
+      <c r="C140" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>742</v>
+      </c>
+      <c r="C142" t="s">
+        <v>743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>